--- a/biology/Botanique/Streptocarpus/Streptocarpus.xlsx
+++ b/biology/Botanique/Streptocarpus/Streptocarpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Streptocarpus est un genre de plantes de la famille des Gesneriaceae dans la classification phylogénétique. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017) :
 Streptocarpus albus (E.A. Bruce) I. Darbysh.
 Streptocarpus candidus Hilliard
 Streptocarpus caulescens Vatke
@@ -546,7 +560,7 @@
 non-classé Streptocarpus 'Melon Wine'
 non-classé Streptocarpus 'Nerys'
 non-classé Streptocarpus 'Texas Hot Chili'
-Selon BioLib                    (24 juillet 2017)[2] :
+Selon BioLib                    (24 juillet 2017) :
 Streptocarpus albus (E.A. Bruce) I. Darbysh.
 Streptocarpus candidus Hilliard
 Streptocarpus caulescens Vatke
@@ -572,7 +586,7 @@
 Streptocarpus wendlandii Spreng.
 Streptocarpus wilmsii Engl.
 Streptocarpus × kewensis
-Selon Catalogue of Life                                   (24 juillet 2017)[3] :
+Selon Catalogue of Life                                   (24 juillet 2017) :
 Streptocarpus actinoflorus T.J. Edwards &amp; M. Hughes
 Streptocarpus albus (E.A. Bruce) I. Darbysh.
 Streptocarpus andohahelensis Humbert
@@ -736,7 +750,7 @@
 Streptocarpus wilmsii Engler
 Streptocarpus wittei De Wildeman
 Streptocarpus zimmermanii Engler
-Selon GRIN            (24 juillet 2017)[4] :
+Selon GRIN            (24 juillet 2017) :
 Streptocarpus caulescens Vatke
 Streptocarpus × hybridus Voss
 Streptocarpus nobilis C. B. Clarke
@@ -745,7 +759,7 @@
 Streptocarpus pusillus Harv. ex C. B. Clarke
 Streptocarpus rexii (Bowie ex Hook.) Lindl.
 Streptocarpus saxorum Engl.
-Selon ITIS      (24 juillet 2017)[5] :
+Selon ITIS      (24 juillet 2017) :
 Streptocarpus actinoflorus T.J. Edwards &amp; M. Hughes
 Streptocarpus albus (E.A. Bruce) I. Darbysh.
 Streptocarpus andohahelensis Humbert
@@ -909,7 +923,7 @@
 Streptocarpus wilmsii Engler
 Streptocarpus wittei De Wildeman
 Streptocarpus zimmermanii Engler
-Selon NCBI  (24 juillet 2017)[6] :
+Selon NCBI  (24 juillet 2017) :
 sous-genre Streptocarpella
 non-classé Streptocarpus sect. Carnosifolii
 Streptocarpus kirkii
@@ -1062,7 +1076,7 @@
 Streptocarpus exsertus
 Streptocarpus orientalis
 Streptocarpus × hybridus
-Selon The Plant List            (24 juillet 2017)[7] :
+Selon The Plant List            (24 juillet 2017) :
 Streptocarpus albus (E.A. Bruce) I. Darbysh.
 Streptocarpus andohahelensis Humbert
 Streptocarpus arcuatus Hilliard &amp; B.L. Burtt
@@ -1197,7 +1211,7 @@
 Streptocarpus wendlandii Spreng.
 Streptocarpus wilmsii Engl.
 Streptocarpus wittei De Wild.
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Streptocarpus actinoflorus T.J. Edwards &amp; M. Hughes
 Streptocarpus afroviola Christenh.
 Streptocarpus albus (E.A. Bruce) I. Darbysh.
